--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="6255"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>试卷名称</t>
   </si>
@@ -25,6 +25,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>哔哩哔哩</t>
     </r>
     <r>
@@ -48,6 +55,18 @@
       <t>秋招技术岗（前端、运维、后端、移动端）第一套</t>
     </r>
   </si>
+  <si>
+    <t>欢聚时代2018校招笔试题-Java开发/运维研发/数据挖掘</t>
+  </si>
+  <si>
+    <t>用友2018秋招Java笔试题（六）</t>
+  </si>
+  <si>
+    <t>用友2018秋招Java笔试题（五）</t>
+  </si>
+  <si>
+    <t>用友2018秋招Java笔试题（四</t>
+  </si>
 </sst>
 </file>
 
@@ -56,8 +75,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -73,157 +92,6 @@
       <color rgb="FF34495E"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -232,6 +100,156 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,55 +260,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,90 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +457,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +521,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -498,192 +551,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +710,21 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="87.875" customWidth="1"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
@@ -1068,6 +1101,101 @@
       <c r="B2" s="2">
         <v>43836.3576388889</v>
       </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43837.3576388889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>试卷名称</t>
   </si>
   <si>
     <t>练习时间</t>
+  </si>
+  <si>
+    <t>收获</t>
   </si>
   <si>
     <r>
@@ -59,13 +62,148 @@
     <t>欢聚时代2018校招笔试题-Java开发/运维研发/数据挖掘</t>
   </si>
   <si>
-    <t>用友2018秋招Java笔试题（六）</t>
+    <r>
+      <t>用友</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋招</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试题（六）</t>
+    </r>
   </si>
   <si>
     <t>用友2018秋招Java笔试题（五）</t>
   </si>
   <si>
-    <t>用友2018秋招Java笔试题（四</t>
+    <r>
+      <t>用友</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋招</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试题（四）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用友</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋招</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试题（三）</t>
+    </r>
+  </si>
+  <si>
+    <t>用友2018秋招Java笔试题（二）</t>
+  </si>
+  <si>
+    <t>switch中的Java7和java8支持的数据类型。</t>
   </si>
 </sst>
 </file>
@@ -73,13 +211,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,21 +255,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +314,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -136,8 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,93 +332,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,6 +353,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,18 +408,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,25 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,115 +558,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,36 +620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +675,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,169 +707,175 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1074,128 +1228,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="87.875" customWidth="1"/>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>43836.3576388889</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>43837.3576388889</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:1">
-      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="7">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B7" s="7">
         <v>43838</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+    <row r="8" ht="15.75" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>试卷名称</t>
   </si>
@@ -63,6 +63,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用友</t>
     </r>
     <r>
@@ -111,6 +118,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用友</t>
     </r>
     <r>
@@ -156,6 +170,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用友</t>
     </r>
     <r>
@@ -205,15 +226,60 @@
   <si>
     <t>switch中的Java7和java8支持的数据类型。</t>
   </si>
+  <si>
+    <r>
+      <t>用友</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋招</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试题（一）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -256,21 +322,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,16 +418,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,84 +459,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,187 +474,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,9 +670,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +742,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -649,56 +765,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,137 +785,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +939,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1231,7 +1294,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1301,7 +1364,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7">
@@ -1311,68 +1374,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+    <row r="11" ht="15.75" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43839</v>
+      </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T\Desktop\面试准备\面试计划\Interview\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80002686-64D2-40D8-B892-33609ABED86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="1500" yWindow="2604" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>试卷名称</t>
   </si>
@@ -43,7 +49,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019</t>
     </r>
@@ -78,7 +84,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -98,7 +104,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -133,7 +139,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -153,7 +159,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -185,7 +191,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -205,7 +211,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -236,7 +242,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -256,7 +262,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -270,19 +276,20 @@
       </rPr>
       <t>笔试题（一）</t>
     </r>
+  </si>
+  <si>
+    <t>爱奇艺2019秋招Java方向笔试题（B）</t>
+  </si>
+  <si>
+    <t>类初始化顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,348 +325,39 @@
       <sz val="12"/>
       <color rgb="FF34495E"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -667,255 +365,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,62 +399,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1285,26 +703,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="87.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,23 +733,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>43836.3576388889</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:2">
+        <v>43836.357638888898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>43837.3576388889</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:2">
+        <v>43837.357638888898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +757,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:2">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +765,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:2">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +773,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:2">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +781,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:2">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1382,103 +800,105 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T\Desktop\面试准备\面试计划\Interview\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80002686-64D2-40D8-B892-33609ABED86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2604" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>试卷名称</t>
   </si>
@@ -49,7 +43,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2019</t>
     </r>
@@ -84,7 +78,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -104,7 +98,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -139,7 +133,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -159,7 +153,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -191,7 +185,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -211,7 +205,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -234,6 +228,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34495E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用友</t>
     </r>
     <r>
@@ -242,7 +243,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -262,7 +263,7 @@
         <sz val="12"/>
         <color rgb="FF34495E"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Java</t>
     </r>
@@ -281,15 +282,99 @@
     <t>爱奇艺2019秋招Java方向笔试题（B）</t>
   </si>
   <si>
-    <t>类初始化顺序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>类初始化顺序，哈希冲突，线性嗅探法</t>
+  </si>
+  <si>
+    <r>
+      <t>爱奇艺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋招</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向笔试题（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>堆排序的初始化过程</t>
+  </si>
+  <si>
+    <r>
+      <t>京东2019春招京东Java开发类试卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>countdown cycleBarrie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,39 +410,373 @@
       <sz val="12"/>
       <color rgb="FF34495E"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -365,13 +784,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,27 +1057,77 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -703,26 +1414,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="87.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="87.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="50.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,23 +1444,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>43836.357638888898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+        <v>43836.3576388889</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>43837.357638888898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+        <v>43837.3576388889</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -757,7 +1468,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -765,7 +1476,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -773,7 +1484,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -781,7 +1492,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -792,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -800,105 +1511,127 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>43839</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43840</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8175"/>
+    <workbookView windowWidth="16935" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>试卷名称</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>爱奇艺</t>
     </r>
     <r>
@@ -348,20 +354,50 @@
   </si>
   <si>
     <r>
-      <t>京东2019春招京东Java开发类试卷</t>
-    </r>
-    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>京东2019春招京东Java开发类试卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
   </si>
   <si>
     <t>countdown cycleBarrie</t>
+  </si>
+  <si>
+    <t>有赞2019校招Java笔试（B卷）</t>
+  </si>
+  <si>
+    <t>索引失效</t>
+  </si>
+  <si>
+    <t>点我达2019届校招Java开发笔试</t>
+  </si>
+  <si>
+    <t>最短寻道算法。linux改变文件组、用户权限</t>
+  </si>
+  <si>
+    <t>网易2018实习生招聘笔试题-JAVA开发实习生</t>
+  </si>
+  <si>
+    <t>网易2018校招Java开发工程师笔试卷</t>
+  </si>
+  <si>
+    <t>哈夫曼编码，TCP/UDP协议。</t>
+  </si>
+  <si>
+    <t>网易2018校园招聘Java开发工程师(BJ)笔试卷</t>
   </si>
 </sst>
 </file>
@@ -374,7 +410,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,13 +455,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -445,6 +474,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -453,7 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,21 +506,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +527,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,27 +556,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,8 +579,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,49 +620,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,79 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,49 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,26 +825,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,6 +868,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,15 +911,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -890,10 +919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,137 +931,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,13 +1089,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1422,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1544,56 +1579,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43843</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
+      <c r="A16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43843</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43843</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java试卷练习.xlsx
+++ b/java试卷练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="7590"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>试卷名称</t>
   </si>
@@ -398,6 +398,15 @@
   </si>
   <si>
     <t>网易2018校园招聘Java开发工程师(BJ)笔试卷</t>
+  </si>
+  <si>
+    <t>搜狐2018秋招第二批-技术类试卷</t>
+  </si>
+  <si>
+    <t>路由地址</t>
+  </si>
+  <si>
+    <t>搜狐2018秋招技术类试卷</t>
   </si>
 </sst>
 </file>
@@ -406,9 +415,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -467,6 +476,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -476,6 +508,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,21 +537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,23 +559,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,8 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,48 +613,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,19 +629,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,19 +767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,139 +797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,6 +820,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,34 +896,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,21 +920,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -919,149 +928,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,9 +1102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1458,7 +1464,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1580,7 +1586,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7">
@@ -1591,7 +1597,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7">
@@ -1602,7 +1608,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="7">
@@ -1610,7 +1616,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7">
@@ -1621,46 +1627,61 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="14"/>
+      <c r="B19" s="7">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43850</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>43850</v>
+      </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
